--- a/Riyadh_Team_A.xlsx
+++ b/Riyadh_Team_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-MOSTAFA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085354D1-2F39-4E44-8F7D-D6B6A99D828E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED21621-B481-40CD-9CBD-68A49D2C4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ExportedData (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$Z$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$W$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="192">
-  <si>
-    <t>رمز_نوع_النشاط_الميداني</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>M-ON</t>
   </si>
@@ -290,12 +287,6 @@
     <t>3011104649000</t>
   </si>
   <si>
-    <t>Sirit GPS</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>nosair</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>Gado</t>
   </si>
   <si>
-    <t>24.10658 38.0524516666667</t>
-  </si>
-  <si>
     <t>23.4116966666666,39.709345</t>
   </si>
   <si>
@@ -335,39 +323,21 @@
     <t>23.7881706116298,38.7970033497577</t>
   </si>
   <si>
-    <t>23.797307 38.7852223333333</t>
-  </si>
-  <si>
     <t>24.09344487,38.05281981</t>
   </si>
   <si>
-    <t>24.0937033333333 38.0523033333333</t>
-  </si>
-  <si>
     <t>25.0801930727293,38.1191406322144</t>
   </si>
   <si>
-    <t>25.0704715 38.1159328333333</t>
-  </si>
-  <si>
     <t>26.5695626103431,37.9310331533507</t>
   </si>
   <si>
     <t>24.0886222642179,38.0514026715039</t>
   </si>
   <si>
-    <t>24.0883533333333 38.0513116666667</t>
-  </si>
-  <si>
     <t>23.7901999999999,39.55296</t>
   </si>
   <si>
-    <t>23.790345 39.5528366666667</t>
-  </si>
-  <si>
-    <t>24.3523583333333 37.6048866666667</t>
-  </si>
-  <si>
     <t>24.10346314,38.06565181</t>
   </si>
   <si>
@@ -380,54 +350,30 @@
     <t>tarek</t>
   </si>
   <si>
-    <t>24.4544233333333 39.602755</t>
-  </si>
-  <si>
     <t>24.06521869,38.10829783</t>
   </si>
   <si>
-    <t>24.0647683333333 38.1081483333333</t>
-  </si>
-  <si>
     <t>24.4725128781335,39.5951814814622</t>
   </si>
   <si>
     <t>24.4680200596665,39.5991308063494</t>
   </si>
   <si>
-    <t>24.4684766666667 39.59828</t>
-  </si>
-  <si>
     <t>waqas</t>
   </si>
   <si>
-    <t>24.456095 39.6438883333333</t>
-  </si>
-  <si>
     <t>24.4844165568829,39.6447845632409</t>
   </si>
   <si>
     <t>shakel</t>
   </si>
   <si>
-    <t>24.4839733333333 39.6448483333333</t>
-  </si>
-  <si>
     <t>24.4581129474861,39.6031278190474</t>
   </si>
   <si>
-    <t>24.4577716666667 39.6038333333333</t>
-  </si>
-  <si>
     <t>24.3839248990021,39.6211629033554</t>
   </si>
   <si>
-    <t>24.3836733333333 39.6206833333333</t>
-  </si>
-  <si>
-    <t>24.489155 39.6301133333333</t>
-  </si>
-  <si>
     <t>24.5403583727 39.6769473329</t>
   </si>
   <si>
@@ -437,57 +383,24 @@
     <t>مقاول2</t>
   </si>
   <si>
-    <t>24.481055 39.5986933333333</t>
-  </si>
-  <si>
-    <t>24.3859916666667 39.6249316666667</t>
-  </si>
-  <si>
-    <t>24.4847083333333 39.6512966666667</t>
-  </si>
-  <si>
     <t>24.4647808616496,39.6560242047071</t>
   </si>
   <si>
-    <t>24.4654216666667 39.65607</t>
-  </si>
-  <si>
     <t>24.4953048544611,39.5823882025224</t>
   </si>
   <si>
-    <t>24.4948566666667 39.5823116666667</t>
-  </si>
-  <si>
-    <t>24.52684 39.669005</t>
-  </si>
-  <si>
     <t>24.4429169215759,39.6029118749778</t>
   </si>
   <si>
-    <t>24.4433866666667 39.6030066666667</t>
-  </si>
-  <si>
     <t>24.4008128475587,39.607434941824</t>
   </si>
   <si>
-    <t>24.4015916666667 39.6075616666667</t>
-  </si>
-  <si>
     <t>24.4777429403651,39.6408363484345</t>
   </si>
   <si>
-    <t>24.476855 39.6403083333333</t>
-  </si>
-  <si>
     <t>24.0456661240868,39.0992185201761</t>
   </si>
   <si>
-    <t>24.0274673333333 39.058136</t>
-  </si>
-  <si>
-    <t>24.5299366666667 39.6720633333333</t>
-  </si>
-  <si>
     <t>26.5979225112632,37.9331238726318</t>
   </si>
   <si>
@@ -497,96 +410,51 @@
     <t>23.5044686141411,40.8933297278445</t>
   </si>
   <si>
-    <t>24.4786483333333 39.6428133333333</t>
-  </si>
-  <si>
     <t>24.4884709271177,39.5989383182806</t>
   </si>
   <si>
-    <t>24.48873 39.5992116666667</t>
-  </si>
-  <si>
     <t>24.4498179 39.6133279</t>
   </si>
   <si>
     <t>24.4559376465229,39.6051293884765</t>
   </si>
   <si>
-    <t>24.4557916666667 39.6054233333333</t>
-  </si>
-  <si>
-    <t>24.443835 39.69446</t>
-  </si>
-  <si>
-    <t>24.4776416666667 39.638685</t>
-  </si>
-  <si>
-    <t>24.4922516666667 39.6292583333333</t>
-  </si>
-  <si>
     <t>24.3685075913 39.518479</t>
   </si>
   <si>
-    <t>24.3694783333333 39.5187566666667</t>
-  </si>
-  <si>
     <t>24.4394596656298,39.6120550997013</t>
   </si>
   <si>
-    <t>24.43868 39.610615</t>
-  </si>
-  <si>
     <t>24.3817647790411,39.598294620136</t>
   </si>
   <si>
     <t>24.4899944859695,39.5906898511937</t>
   </si>
   <si>
-    <t>24.4896266666667 39.5905066666667</t>
-  </si>
-  <si>
-    <t>24.494275 39.655415</t>
-  </si>
-  <si>
     <t>24.4573928920728,39.6104245773067</t>
   </si>
   <si>
     <t>24.13676631,38.04879051</t>
   </si>
   <si>
-    <t>24.13684 38.0483883333333</t>
-  </si>
-  <si>
     <t>24.06430947,38.11614748</t>
   </si>
   <si>
-    <t>24.064275 38.1156283333333</t>
-  </si>
-  <si>
     <t>24.4485149706779,39.6019555579114</t>
   </si>
   <si>
-    <t>24.4483033333333 39.6017283333333</t>
-  </si>
-  <si>
     <t>23.4805483333333,39.6965816666666</t>
   </si>
   <si>
     <t>24.4522310830218,39.5830322919083</t>
   </si>
   <si>
-    <t>24.4524633333333 39.5832866666667</t>
-  </si>
-  <si>
     <t>24.4495844952 39.6289865</t>
   </si>
   <si>
     <t>24.4636726992 39.6347103</t>
   </si>
   <si>
-    <t>Meter</t>
-  </si>
-  <si>
     <t>HCN</t>
   </si>
   <si>
@@ -605,20 +473,23 @@
     <t>فتح خارج النظام</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Locatoins</t>
-  </si>
-  <si>
     <t>coordinates</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -633,12 +504,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -672,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,9 +549,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,1627 +888,1153 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF8A2BE2"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>182</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>61663266</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>65773151</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>65644848</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10110983291</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>65301408</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>61460487</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>65648371</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>65551388</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>65039383</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>65812331</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>61768528</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12">
-        <v>24.352136000000002</v>
-      </c>
-      <c r="H12">
-        <v>37.604978000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>10110927607</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>87910983</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G14">
-        <v>24.517789780000001</v>
-      </c>
-      <c r="H14">
-        <v>39.540210879999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>65970941</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>61943937</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>64425081</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>82832334</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G18">
-        <v>24.471885629999999</v>
-      </c>
-      <c r="H18">
-        <v>39.632009600000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>64476081</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>65146241</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20">
-        <v>24.456712199999998</v>
-      </c>
-      <c r="H20">
-        <v>39.644607899999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>63907990</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>61690531</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>63969152</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>58938436</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24">
-        <v>24.489351299999999</v>
-      </c>
-      <c r="H24">
-        <v>39.630293829999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>61407281</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G25">
-        <v>24.540358372699998</v>
-      </c>
-      <c r="H25">
-        <v>39.676947332899999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>64437856</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>65739535</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27">
-        <v>24.3861879220871</v>
-      </c>
-      <c r="H27">
-        <v>39.624954063009497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>58970923</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28">
-        <v>24.48466389</v>
-      </c>
-      <c r="H28">
-        <v>39.651270169999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>10110765513</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G29">
-        <v>24.49072589</v>
-      </c>
-      <c r="H29">
-        <v>39.704480070000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>61262910</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>62004079</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>61245783</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32">
-        <v>24.527267219999999</v>
-      </c>
-      <c r="H32">
-        <v>39.668199950000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>61725711</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>61715870</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>61496657</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>64431261</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>10110989036</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G37">
-        <v>24.489238400000001</v>
-      </c>
-      <c r="H37">
-        <v>39.652073000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>61287096</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38">
-        <v>24.53047896</v>
-      </c>
-      <c r="H38">
-        <v>39.671644260000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>65655884</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>64587726</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>64997162</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>58854945</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42">
-        <v>24.479426419999999</v>
-      </c>
-      <c r="H42">
-        <v>39.642591029999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>61953229</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>84925535</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G44">
-        <v>24.544506479999999</v>
-      </c>
-      <c r="H44">
-        <v>39.67956495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>85088852</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G45">
-        <v>24.449817899999999</v>
-      </c>
-      <c r="H45">
-        <v>39.613327900000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>61119553</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G46">
-        <v>24.48615779</v>
-      </c>
-      <c r="H46">
-        <v>39.627156620000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>10110765513</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G47">
-        <v>24.49072589</v>
-      </c>
-      <c r="H47">
-        <v>39.704480070000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>84865825</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G48">
-        <v>24.512460180000001</v>
-      </c>
-      <c r="H48">
-        <v>39.56467902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>61762660</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>61274303</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50">
-        <v>24.443978179999998</v>
-      </c>
-      <c r="H50">
-        <v>39.69426318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>58985413</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51">
-        <v>24.47710326</v>
-      </c>
-      <c r="H51">
-        <v>39.639187049999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>58973766</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52">
-        <v>24.491928699999999</v>
-      </c>
-      <c r="H52">
-        <v>39.62930034</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>61701138</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>70377789</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54">
-        <v>24.368507591299998</v>
-      </c>
-      <c r="H54">
-        <v>39.518478999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>61638840</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>61991268</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>61269324</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57">
-        <v>24.494315570000001</v>
-      </c>
-      <c r="H57">
-        <v>39.655698000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>61575104</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>61662842</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>61779505</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>61700917</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>65740893</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>64785585</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>84899172</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G64">
-        <v>24.4495844952</v>
-      </c>
-      <c r="H64">
-        <v>39.628986500000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>84899170</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G65">
-        <v>24.4636726992</v>
-      </c>
-      <c r="H65">
-        <v>39.634710300000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C66">
         <v>63839312</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
-      </c>
-      <c r="G66" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C67">
         <v>61602260</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
-      </c>
-      <c r="H67">
-        <v>24.464093800000001</v>
-      </c>
-      <c r="I67">
+        <v>143</v>
+      </c>
+      <c r="F67">
         <v>39.657489900000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
+  <autoFilter ref="A1:W67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Riyadh_Team_A.xlsx
+++ b/Riyadh_Team_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-MOSTAFA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED21621-B481-40CD-9CBD-68A49D2C4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E72356-E0C4-432F-A228-C78B5010E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ExportedData (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$W$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$V$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,257 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>M-ON</t>
   </si>
   <si>
-    <t>3060511037000</t>
-  </si>
-  <si>
-    <t>3070010891000</t>
-  </si>
-  <si>
-    <t>3090404013000</t>
-  </si>
-  <si>
-    <t>309645131996</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>3060604024000</t>
-  </si>
-  <si>
-    <t>304399220013</t>
-  </si>
-  <si>
-    <t>3091103059000</t>
-  </si>
-  <si>
-    <t>3061503157999</t>
-  </si>
-  <si>
-    <t>3071014422000</t>
-  </si>
-  <si>
-    <t>3061768528</t>
-  </si>
-  <si>
-    <t>24.352136 37.604978</t>
-  </si>
-  <si>
-    <t>307010176024</t>
-  </si>
-  <si>
-    <t>305602185532</t>
-  </si>
-  <si>
-    <t>24.51778978 39.54021088</t>
-  </si>
-  <si>
-    <t>3041301588000</t>
-  </si>
-  <si>
-    <t>3061213051000</t>
-  </si>
-  <si>
-    <t>3030200411000</t>
-  </si>
-  <si>
-    <t>3010400495000</t>
-  </si>
-  <si>
-    <t>24.47188563 39.6320096</t>
-  </si>
-  <si>
-    <t>3030201204000</t>
-  </si>
-  <si>
-    <t>307640864934</t>
-  </si>
-  <si>
-    <t>24.4567122 39.6446079</t>
-  </si>
-  <si>
-    <t>3010502724000</t>
-  </si>
-  <si>
-    <t>3041301056000</t>
-  </si>
-  <si>
-    <t>3043800260000</t>
-  </si>
-  <si>
-    <t>3020502215000</t>
-  </si>
-  <si>
-    <t>24.4893513 39.63029383</t>
-  </si>
-  <si>
-    <t>3022101182000</t>
-  </si>
-  <si>
-    <t>3030100568000</t>
-  </si>
-  <si>
-    <t>308265677920</t>
-  </si>
-  <si>
-    <t>24.386187922087185 39.62495406300955</t>
-  </si>
-  <si>
-    <t>3010700617000</t>
-  </si>
-  <si>
-    <t>24.48466389 39.65127017</t>
-  </si>
-  <si>
-    <t>3010300708001</t>
-  </si>
-  <si>
-    <t>24.49072589 39.70448007</t>
-  </si>
-  <si>
-    <t>3011801158002</t>
-  </si>
-  <si>
-    <t>3021300465000</t>
-  </si>
-  <si>
-    <t>3022100617000</t>
-  </si>
-  <si>
-    <t>24.52726722 39.66819995</t>
-  </si>
-  <si>
-    <t>3041307614000</t>
-  </si>
-  <si>
-    <t>3043105479000</t>
-  </si>
-  <si>
-    <t>3010501596001</t>
-  </si>
-  <si>
-    <t>3075414113000</t>
-  </si>
-  <si>
-    <t>307420463748</t>
-  </si>
-  <si>
-    <t>24.4892384 39.652073</t>
-  </si>
-  <si>
-    <t>3022100329000</t>
-  </si>
-  <si>
-    <t>24.53047896 39.67164426</t>
-  </si>
-  <si>
-    <t>3090407009000</t>
-  </si>
-  <si>
-    <t>3085002084000</t>
-  </si>
-  <si>
-    <t>3085005190000</t>
-  </si>
-  <si>
-    <t>3010504653000</t>
-  </si>
-  <si>
-    <t>24.47942642 39.64259103</t>
-  </si>
-  <si>
-    <t>3020100757000</t>
-  </si>
-  <si>
-    <t>3022300070008</t>
-  </si>
-  <si>
-    <t>24.54450648 39.67956495</t>
-  </si>
-  <si>
-    <t>3040900039000</t>
-  </si>
-  <si>
-    <t>3020501798000</t>
-  </si>
-  <si>
-    <t>24.48615779 39.62715662</t>
-  </si>
-  <si>
-    <t>3021802041000</t>
-  </si>
-  <si>
-    <t>24.51246018 39.56467902</t>
-  </si>
-  <si>
-    <t>3041302055000</t>
-  </si>
-  <si>
-    <t>3012205038000</t>
-  </si>
-  <si>
-    <t>24.44397818 39.69426318</t>
-  </si>
-  <si>
-    <t>3010501285001</t>
-  </si>
-  <si>
-    <t>24.47710326 39.63918705</t>
-  </si>
-  <si>
-    <t>3020600953000</t>
-  </si>
-  <si>
-    <t>24.4919287 39.62930034</t>
-  </si>
-  <si>
-    <t>304330700274</t>
-  </si>
-  <si>
-    <t>3041308709000</t>
-  </si>
-  <si>
-    <t>3043401321001</t>
-  </si>
-  <si>
-    <t>3020101943000</t>
-  </si>
-  <si>
-    <t>3010701860001</t>
-  </si>
-  <si>
-    <t>24.49431557 39.655698</t>
-  </si>
-  <si>
-    <t>3040900248000</t>
-  </si>
-  <si>
-    <t>3060568079000</t>
-  </si>
-  <si>
-    <t>3063611414999</t>
-  </si>
-  <si>
-    <t>3041305292000</t>
-  </si>
-  <si>
-    <t>300909973884</t>
-  </si>
-  <si>
-    <t>3041400650000</t>
-  </si>
-  <si>
-    <t>3040300579000</t>
-  </si>
-  <si>
-    <t>3011104649000</t>
-  </si>
-  <si>
     <t>nosair</t>
   </si>
   <si>
@@ -302,180 +56,30 @@
     <t>عبدالرحمن</t>
   </si>
   <si>
-    <t>24.10624297,38.05274011</t>
-  </si>
-  <si>
     <t>Gado</t>
   </si>
   <si>
-    <t>23.4116966666666,39.709345</t>
-  </si>
-  <si>
-    <t>26.6005874040075,37.9296968656961</t>
-  </si>
-  <si>
     <t>سفيان-سفير</t>
   </si>
   <si>
-    <t>24.1207616820995,38.0131090432405</t>
-  </si>
-  <si>
-    <t>23.7881706116298,38.7970033497577</t>
-  </si>
-  <si>
-    <t>24.09344487,38.05281981</t>
-  </si>
-  <si>
-    <t>25.0801930727293,38.1191406322144</t>
-  </si>
-  <si>
-    <t>26.5695626103431,37.9310331533507</t>
-  </si>
-  <si>
-    <t>24.0886222642179,38.0514026715039</t>
-  </si>
-  <si>
-    <t>23.7901999999999,39.55296</t>
-  </si>
-  <si>
-    <t>24.10346314,38.06565181</t>
-  </si>
-  <si>
     <t>ساجد</t>
   </si>
   <si>
-    <t>24.4546070984722,39.6027303792997</t>
-  </si>
-  <si>
     <t>tarek</t>
   </si>
   <si>
-    <t>24.06521869,38.10829783</t>
-  </si>
-  <si>
-    <t>24.4725128781335,39.5951814814622</t>
-  </si>
-  <si>
-    <t>24.4680200596665,39.5991308063494</t>
-  </si>
-  <si>
     <t>waqas</t>
   </si>
   <si>
-    <t>24.4844165568829,39.6447845632409</t>
-  </si>
-  <si>
     <t>shakel</t>
   </si>
   <si>
-    <t>24.4581129474861,39.6031278190474</t>
-  </si>
-  <si>
-    <t>24.3839248990021,39.6211629033554</t>
-  </si>
-  <si>
-    <t>24.5403583727 39.6769473329</t>
-  </si>
-  <si>
-    <t>24.481296810241,39.5986121572635</t>
-  </si>
-  <si>
     <t>مقاول2</t>
   </si>
   <si>
-    <t>24.4647808616496,39.6560242047071</t>
-  </si>
-  <si>
-    <t>24.4953048544611,39.5823882025224</t>
-  </si>
-  <si>
-    <t>24.4429169215759,39.6029118749778</t>
-  </si>
-  <si>
-    <t>24.4008128475587,39.607434941824</t>
-  </si>
-  <si>
-    <t>24.4777429403651,39.6408363484345</t>
-  </si>
-  <si>
-    <t>24.0456661240868,39.0992185201761</t>
-  </si>
-  <si>
-    <t>26.5979225112632,37.9331238726318</t>
-  </si>
-  <si>
-    <t>23.5053282216093,40.8861010529847</t>
-  </si>
-  <si>
-    <t>23.5044686141411,40.8933297278445</t>
-  </si>
-  <si>
-    <t>24.4884709271177,39.5989383182806</t>
-  </si>
-  <si>
-    <t>24.4498179 39.6133279</t>
-  </si>
-  <si>
-    <t>24.4559376465229,39.6051293884765</t>
-  </si>
-  <si>
-    <t>24.3685075913 39.518479</t>
-  </si>
-  <si>
-    <t>24.4394596656298,39.6120550997013</t>
-  </si>
-  <si>
-    <t>24.3817647790411,39.598294620136</t>
-  </si>
-  <si>
-    <t>24.4899944859695,39.5906898511937</t>
-  </si>
-  <si>
-    <t>24.4573928920728,39.6104245773067</t>
-  </si>
-  <si>
-    <t>24.13676631,38.04879051</t>
-  </si>
-  <si>
-    <t>24.06430947,38.11614748</t>
-  </si>
-  <si>
-    <t>24.4485149706779,39.6019555579114</t>
-  </si>
-  <si>
-    <t>23.4805483333333,39.6965816666666</t>
-  </si>
-  <si>
-    <t>24.4522310830218,39.5830322919083</t>
-  </si>
-  <si>
-    <t>24.4495844952 39.6289865</t>
-  </si>
-  <si>
-    <t>24.4636726992 39.6347103</t>
-  </si>
-  <si>
-    <t>HCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24.4640938 39.6574899</t>
-  </si>
-  <si>
-    <t>24.4394598037635,39.6102496284973</t>
-  </si>
-  <si>
-    <t>304299263850</t>
-  </si>
-  <si>
-    <t>118/2/1187</t>
-  </si>
-  <si>
     <t>فتح خارج النظام</t>
   </si>
   <si>
-    <t>coordinates</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -483,6 +87,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -506,7 +116,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,12 +126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E2EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -537,12 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,123 +489,123 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF8A2BE2"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>146</v>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>24.10624297</v>
+      </c>
+      <c r="B2">
+        <v>38.052740110000002</v>
       </c>
       <c r="C2">
         <v>61663266</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="A3">
+        <v>23.4116966666666</v>
+      </c>
+      <c r="B3">
+        <v>39.709344999999999</v>
       </c>
       <c r="C3">
         <v>65773151</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+      <c r="A4">
+        <v>26.600587404007499</v>
+      </c>
+      <c r="B4">
+        <v>37.929696865696101</v>
       </c>
       <c r="C4">
         <v>65644848</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>24.120761682099499</v>
+      </c>
+      <c r="B5">
+        <v>38.013109043240497</v>
       </c>
       <c r="C5">
         <v>10110983291</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>23.788170611629798</v>
+      </c>
+      <c r="B6">
+        <v>38.797003349757702</v>
       </c>
       <c r="C6">
         <v>65301408</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+      <c r="A7">
+        <v>24.093444869999999</v>
+      </c>
+      <c r="B7">
+        <v>38.052819810000003</v>
       </c>
       <c r="C7">
         <v>61460487</v>
@@ -1013,1028 +614,1024 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
+      <c r="A8">
+        <v>25.080193072729301</v>
+      </c>
+      <c r="B8">
+        <v>38.119140632214403</v>
       </c>
       <c r="C8">
         <v>65648371</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
+      <c r="A9">
+        <v>26.569562610343102</v>
+      </c>
+      <c r="B9">
+        <v>37.931033153350697</v>
       </c>
       <c r="C9">
         <v>65551388</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
+      <c r="A10">
+        <v>24.0886222642179</v>
+      </c>
+      <c r="B10">
+        <v>38.051402671503901</v>
       </c>
       <c r="C10">
         <v>65039383</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
+      <c r="A11">
+        <v>23.790199999999899</v>
+      </c>
+      <c r="B11">
+        <v>39.552959999999999</v>
       </c>
       <c r="C11">
         <v>65812331</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
+      <c r="A12">
+        <v>24.352136000000002</v>
+      </c>
+      <c r="B12">
+        <v>37.604978000000003</v>
       </c>
       <c r="C12">
         <v>61768528</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
+      <c r="A13">
+        <v>24.103463139999999</v>
+      </c>
+      <c r="B13">
+        <v>38.065651809999999</v>
       </c>
       <c r="C13">
         <v>10110927607</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
+      <c r="A14">
+        <v>24.517789780000001</v>
+      </c>
+      <c r="B14">
+        <v>39.540210879999997</v>
       </c>
       <c r="C14">
         <v>87910983</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
+      <c r="A15">
+        <v>24.454607098472199</v>
+      </c>
+      <c r="B15">
+        <v>39.6027303792997</v>
       </c>
       <c r="C15">
         <v>65970941</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
+      <c r="A16">
+        <v>24.065218689999998</v>
+      </c>
+      <c r="B16">
+        <v>38.108297829999998</v>
       </c>
       <c r="C16">
         <v>61943937</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
+      <c r="A17">
+        <v>24.4725128781335</v>
+      </c>
+      <c r="B17">
+        <v>39.595181481462198</v>
       </c>
       <c r="C17">
         <v>64425081</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
+      <c r="A18">
+        <v>24.471885629999999</v>
+      </c>
+      <c r="B18">
+        <v>39.632009600000004</v>
       </c>
       <c r="C18">
         <v>82832334</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
+      <c r="A19">
+        <v>24.4680200596665</v>
+      </c>
+      <c r="B19">
+        <v>39.5991308063494</v>
       </c>
       <c r="C19">
         <v>64476081</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
+      <c r="A20">
+        <v>24.456712199999998</v>
+      </c>
+      <c r="B20">
+        <v>39.644607899999997</v>
       </c>
       <c r="C20">
         <v>65146241</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
+      <c r="A21">
+        <v>24.484416556882898</v>
+      </c>
+      <c r="B21">
+        <v>39.644784563240897</v>
       </c>
       <c r="C21">
         <v>63907990</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
+      <c r="A22">
+        <v>24.4581129474861</v>
+      </c>
+      <c r="B22">
+        <v>39.603127819047401</v>
       </c>
       <c r="C22">
         <v>61690531</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
+      <c r="A23">
+        <v>24.3839248990021</v>
+      </c>
+      <c r="B23">
+        <v>39.621162903355398</v>
       </c>
       <c r="C23">
         <v>63969152</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
+      <c r="A24">
+        <v>24.489351299999999</v>
+      </c>
+      <c r="B24">
+        <v>39.630293829999999</v>
       </c>
       <c r="C24">
         <v>58938436</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
+      <c r="A25">
+        <v>24.540358372699998</v>
+      </c>
+      <c r="B25">
+        <v>39.676947332899999</v>
       </c>
       <c r="C25">
         <v>61407281</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
+      <c r="A26">
+        <v>24.481296810240998</v>
+      </c>
+      <c r="B26">
+        <v>39.598612157263503</v>
       </c>
       <c r="C26">
         <v>64437856</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
+      <c r="A27">
+        <v>24.3861879220871</v>
+      </c>
+      <c r="B27">
+        <v>39.624954063009497</v>
       </c>
       <c r="C27">
         <v>65739535</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
+      <c r="A28">
+        <v>24.48466389</v>
+      </c>
+      <c r="B28">
+        <v>39.651270169999997</v>
       </c>
       <c r="C28">
         <v>58970923</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
+      <c r="A29">
+        <v>24.49072589</v>
+      </c>
+      <c r="B29">
+        <v>39.704480070000002</v>
       </c>
       <c r="C29">
         <v>10110765513</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
+      <c r="A30">
+        <v>24.464780861649601</v>
+      </c>
+      <c r="B30">
+        <v>39.656024204707101</v>
       </c>
       <c r="C30">
         <v>61262910</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
+      <c r="A31">
+        <v>24.4953048544611</v>
+      </c>
+      <c r="B31">
+        <v>39.582388202522402</v>
       </c>
       <c r="C31">
         <v>62004079</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
+      <c r="A32">
+        <v>24.527267219999999</v>
+      </c>
+      <c r="B32">
+        <v>39.668199950000002</v>
       </c>
       <c r="C32">
         <v>61245783</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
+      <c r="A33">
+        <v>24.4429169215759</v>
+      </c>
+      <c r="B33">
+        <v>39.602911874977799</v>
       </c>
       <c r="C33">
         <v>61725711</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
+      <c r="A34">
+        <v>24.400812847558701</v>
+      </c>
+      <c r="B34">
+        <v>39.607434941824003</v>
       </c>
       <c r="C34">
         <v>61715870</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
+      <c r="A35">
+        <v>24.477742940365101</v>
+      </c>
+      <c r="B35">
+        <v>39.640836348434497</v>
       </c>
       <c r="C35">
         <v>61496657</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
+      <c r="A36">
+        <v>24.0456661240868</v>
+      </c>
+      <c r="B36">
+        <v>39.099218520176102</v>
       </c>
       <c r="C36">
         <v>64431261</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
+      <c r="A37">
+        <v>24.489238400000001</v>
+      </c>
+      <c r="B37">
+        <v>39.652073000000001</v>
       </c>
       <c r="C37">
         <v>10110989036</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
+      <c r="A38">
+        <v>24.53047896</v>
+      </c>
+      <c r="B38">
+        <v>39.671644260000001</v>
       </c>
       <c r="C38">
         <v>61287096</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
+      <c r="A39">
+        <v>26.597922511263199</v>
+      </c>
+      <c r="B39">
+        <v>37.933123872631803</v>
       </c>
       <c r="C39">
         <v>65655884</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
+      <c r="A40">
+        <v>23.5053282216093</v>
+      </c>
+      <c r="B40">
+        <v>40.886101052984699</v>
       </c>
       <c r="C40">
         <v>64587726</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
+      <c r="A41">
+        <v>23.5044686141411</v>
+      </c>
+      <c r="B41">
+        <v>40.893329727844502</v>
       </c>
       <c r="C41">
         <v>64997162</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
+      <c r="A42">
+        <v>24.479426419999999</v>
+      </c>
+      <c r="B42">
+        <v>39.642591029999998</v>
       </c>
       <c r="C42">
         <v>58854945</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
+      <c r="A43">
+        <v>24.488470927117699</v>
+      </c>
+      <c r="B43">
+        <v>39.598938318280602</v>
       </c>
       <c r="C43">
         <v>61953229</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
+      <c r="A44">
+        <v>24.544506479999999</v>
+      </c>
+      <c r="B44">
+        <v>39.67956495</v>
       </c>
       <c r="C44">
         <v>84925535</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
+      <c r="A45">
+        <v>24.449817899999999</v>
+      </c>
+      <c r="B45">
+        <v>39.613327900000002</v>
       </c>
       <c r="C45">
         <v>85088852</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
+      <c r="A46">
+        <v>24.48615779</v>
+      </c>
+      <c r="B46">
+        <v>39.627156620000001</v>
       </c>
       <c r="C46">
         <v>61119553</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
+      <c r="A47">
+        <v>24.49072589</v>
+      </c>
+      <c r="B47">
+        <v>39.704480070000002</v>
       </c>
       <c r="C47">
         <v>10110765513</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
+      <c r="A48">
+        <v>24.512460180000001</v>
+      </c>
+      <c r="B48">
+        <v>39.56467902</v>
       </c>
       <c r="C48">
         <v>84865825</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
+      <c r="A49">
+        <v>24.455937646522901</v>
+      </c>
+      <c r="B49">
+        <v>39.605129388476499</v>
       </c>
       <c r="C49">
         <v>61762660</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
+      <c r="A50">
+        <v>24.443978179999998</v>
+      </c>
+      <c r="B50">
+        <v>39.69426318</v>
       </c>
       <c r="C50">
         <v>61274303</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
+      <c r="A51">
+        <v>24.47710326</v>
+      </c>
+      <c r="B51">
+        <v>39.639187049999997</v>
       </c>
       <c r="C51">
         <v>58985413</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
+      <c r="A52">
+        <v>24.491928699999999</v>
+      </c>
+      <c r="B52">
+        <v>39.62930034</v>
       </c>
       <c r="C52">
         <v>58973766</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
+      <c r="A53">
+        <v>24.439459665629801</v>
+      </c>
+      <c r="B53">
+        <v>39.612055099701301</v>
       </c>
       <c r="C53">
         <v>61701138</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
+      <c r="A54">
+        <v>24.368507591299998</v>
+      </c>
+      <c r="B54">
+        <v>39.518478999999999</v>
       </c>
       <c r="C54">
         <v>70377789</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
+      <c r="A55">
+        <v>24.381764779041099</v>
+      </c>
+      <c r="B55">
+        <v>39.598294620136002</v>
       </c>
       <c r="C55">
         <v>61638840</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
+      <c r="A56">
+        <v>24.4899944859695</v>
+      </c>
+      <c r="B56">
+        <v>39.590689851193702</v>
       </c>
       <c r="C56">
         <v>61991268</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
+      <c r="A57">
+        <v>24.494315570000001</v>
+      </c>
+      <c r="B57">
+        <v>39.655698000000001</v>
       </c>
       <c r="C57">
         <v>61269324</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
+      <c r="A58">
+        <v>24.4573928920728</v>
+      </c>
+      <c r="B58">
+        <v>39.610424577306702</v>
       </c>
       <c r="C58">
         <v>61575104</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
+      <c r="A59">
+        <v>24.136766309999999</v>
+      </c>
+      <c r="B59">
+        <v>38.048790510000003</v>
       </c>
       <c r="C59">
         <v>61662842</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
+      <c r="A60">
+        <v>24.064309470000001</v>
+      </c>
+      <c r="B60">
+        <v>38.116147480000002</v>
       </c>
       <c r="C60">
         <v>61779505</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
+      <c r="A61">
+        <v>24.448514970677898</v>
+      </c>
+      <c r="B61">
+        <v>39.601955557911403</v>
       </c>
       <c r="C61">
         <v>61700917</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
+      <c r="A62">
+        <v>23.480548333333299</v>
+      </c>
+      <c r="B62">
+        <v>39.696581666666603</v>
       </c>
       <c r="C62">
         <v>65740893</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
+      <c r="A63">
+        <v>24.4522310830218</v>
+      </c>
+      <c r="B63">
+        <v>39.583032291908303</v>
       </c>
       <c r="C63">
         <v>64785585</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
+      <c r="A64">
+        <v>24.4495844952</v>
+      </c>
+      <c r="B64">
+        <v>39.628986500000003</v>
       </c>
       <c r="C64">
         <v>84899172</v>
       </c>
-      <c r="D64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" t="e">
+      <c r="D64" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>24.4636726992</v>
+      </c>
+      <c r="B65">
+        <v>39.634710300000002</v>
       </c>
       <c r="C65">
         <v>84899170</v>
       </c>
-      <c r="D65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" t="e">
+      <c r="D65" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>144</v>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>24.439459803763501</v>
+      </c>
+      <c r="B66">
+        <v>39.6102496284973</v>
       </c>
       <c r="C66">
         <v>63839312</v>
       </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>144</v>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67">
+        <v>24.464093800000001</v>
       </c>
       <c r="C67">
         <v>61602260</v>
       </c>
-      <c r="D67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67">
-        <v>39.657489900000002</v>
+      <c r="E67" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
+  <autoFilter ref="B1:V67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Riyadh_Team_A.xlsx
+++ b/Riyadh_Team_A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-MOSTAFA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-MOSTAFA\Documents\Adobe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E72356-E0C4-432F-A228-C78B5010E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAC302-C21E-42CF-B861-7ABAC6CA7F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ExportedData (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$V$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,13 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -493,25 +490,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1591,7 +1588,7 @@
         <v>24.4636726992</v>
       </c>
       <c r="B65">
-        <v>39.634710300000002</v>
+        <v>39.628986500000003</v>
       </c>
       <c r="C65">
         <v>84899170</v>
@@ -1608,29 +1605,37 @@
         <v>24.439459803763501</v>
       </c>
       <c r="B66">
-        <v>39.6102496284973</v>
+        <v>39.628986500000003</v>
       </c>
       <c r="C66">
         <v>63839312</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67">
+        <v>24.439459803763501</v>
+      </c>
       <c r="B67">
-        <v>24.464093800000001</v>
+        <v>39.628986500000003</v>
       </c>
       <c r="C67">
         <v>61602260</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:V67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
+  <autoFilter ref="B1:E67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Riyadh_Team_A.xlsx
+++ b/Riyadh_Team_A.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-MOSTAFA\Documents\Adobe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAC302-C21E-42CF-B861-7ABAC6CA7F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA186A-DF1C-4529-AB50-6D27915D6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="1950" windowWidth="11595" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedData (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ExportedData (2)'!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="20">
   <si>
     <t>M-ON</t>
   </si>
@@ -80,9 +80,6 @@
     <t>فتح خارج النظام</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>TaskID</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>clientName</t>
   </si>
 </sst>
 </file>
@@ -486,33 +489,36 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF8A2BE2"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24.10624297</v>
       </c>
@@ -528,8 +534,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23.4116966666666</v>
       </c>
@@ -545,8 +554,11 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26.600587404007499</v>
       </c>
@@ -562,8 +574,11 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24.120761682099499</v>
       </c>
@@ -579,8 +594,11 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.788170611629798</v>
       </c>
@@ -596,8 +614,11 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24.093444869999999</v>
       </c>
@@ -613,8 +634,11 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25.080193072729301</v>
       </c>
@@ -630,8 +654,11 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.569562610343102</v>
       </c>
@@ -647,8 +674,11 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24.0886222642179</v>
       </c>
@@ -664,8 +694,11 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23.790199999999899</v>
       </c>
@@ -681,8 +714,11 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24.352136000000002</v>
       </c>
@@ -698,8 +734,11 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24.103463139999999</v>
       </c>
@@ -715,8 +754,11 @@
       <c r="E13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24.517789780000001</v>
       </c>
@@ -732,8 +774,11 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24.454607098472199</v>
       </c>
@@ -749,8 +794,11 @@
       <c r="E15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24.065218689999998</v>
       </c>
@@ -766,8 +814,11 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24.4725128781335</v>
       </c>
@@ -783,8 +834,11 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24.471885629999999</v>
       </c>
@@ -800,8 +854,11 @@
       <c r="E18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24.4680200596665</v>
       </c>
@@ -817,8 +874,11 @@
       <c r="E19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24.456712199999998</v>
       </c>
@@ -834,8 +894,11 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24.484416556882898</v>
       </c>
@@ -851,8 +914,11 @@
       <c r="E21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24.4581129474861</v>
       </c>
@@ -868,8 +934,11 @@
       <c r="E22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24.3839248990021</v>
       </c>
@@ -885,8 +954,11 @@
       <c r="E23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24.489351299999999</v>
       </c>
@@ -902,8 +974,11 @@
       <c r="E24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24.540358372699998</v>
       </c>
@@ -919,8 +994,11 @@
       <c r="E25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24.481296810240998</v>
       </c>
@@ -936,8 +1014,11 @@
       <c r="E26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24.3861879220871</v>
       </c>
@@ -953,8 +1034,11 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24.48466389</v>
       </c>
@@ -970,8 +1054,11 @@
       <c r="E28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24.49072589</v>
       </c>
@@ -987,8 +1074,11 @@
       <c r="E29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24.464780861649601</v>
       </c>
@@ -1004,8 +1094,11 @@
       <c r="E30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24.4953048544611</v>
       </c>
@@ -1021,8 +1114,11 @@
       <c r="E31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24.527267219999999</v>
       </c>
@@ -1038,8 +1134,11 @@
       <c r="E32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24.4429169215759</v>
       </c>
@@ -1055,8 +1154,11 @@
       <c r="E33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24.400812847558701</v>
       </c>
@@ -1072,8 +1174,11 @@
       <c r="E34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24.477742940365101</v>
       </c>
@@ -1089,8 +1194,11 @@
       <c r="E35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24.0456661240868</v>
       </c>
@@ -1106,8 +1214,11 @@
       <c r="E36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24.489238400000001</v>
       </c>
@@ -1123,8 +1234,11 @@
       <c r="E37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24.53047896</v>
       </c>
@@ -1140,8 +1254,11 @@
       <c r="E38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26.597922511263199</v>
       </c>
@@ -1157,8 +1274,11 @@
       <c r="E39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>23.5053282216093</v>
       </c>
@@ -1174,8 +1294,11 @@
       <c r="E40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>23.5044686141411</v>
       </c>
@@ -1191,8 +1314,11 @@
       <c r="E41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>24.479426419999999</v>
       </c>
@@ -1208,8 +1334,11 @@
       <c r="E42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>24.488470927117699</v>
       </c>
@@ -1225,8 +1354,11 @@
       <c r="E43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24.544506479999999</v>
       </c>
@@ -1242,8 +1374,11 @@
       <c r="E44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>24.449817899999999</v>
       </c>
@@ -1259,8 +1394,11 @@
       <c r="E45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>24.48615779</v>
       </c>
@@ -1276,8 +1414,11 @@
       <c r="E46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>24.49072589</v>
       </c>
@@ -1293,8 +1434,11 @@
       <c r="E47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24.512460180000001</v>
       </c>
@@ -1310,8 +1454,11 @@
       <c r="E48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>24.455937646522901</v>
       </c>
@@ -1327,8 +1474,11 @@
       <c r="E49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24.443978179999998</v>
       </c>
@@ -1344,8 +1494,11 @@
       <c r="E50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24.47710326</v>
       </c>
@@ -1361,8 +1514,11 @@
       <c r="E51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24.491928699999999</v>
       </c>
@@ -1378,8 +1534,11 @@
       <c r="E52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>24.439459665629801</v>
       </c>
@@ -1395,8 +1554,11 @@
       <c r="E53" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24.368507591299998</v>
       </c>
@@ -1412,8 +1574,11 @@
       <c r="E54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24.381764779041099</v>
       </c>
@@ -1429,8 +1594,11 @@
       <c r="E55" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>24.4899944859695</v>
       </c>
@@ -1446,8 +1614,11 @@
       <c r="E56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>24.494315570000001</v>
       </c>
@@ -1463,8 +1634,11 @@
       <c r="E57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24.4573928920728</v>
       </c>
@@ -1480,8 +1654,11 @@
       <c r="E58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>24.136766309999999</v>
       </c>
@@ -1497,8 +1674,11 @@
       <c r="E59" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24.064309470000001</v>
       </c>
@@ -1514,8 +1694,11 @@
       <c r="E60" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24.448514970677898</v>
       </c>
@@ -1531,8 +1714,11 @@
       <c r="E61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23.480548333333299</v>
       </c>
@@ -1548,8 +1734,11 @@
       <c r="E62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24.4522310830218</v>
       </c>
@@ -1565,8 +1754,11 @@
       <c r="E63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24.4495844952</v>
       </c>
@@ -1582,8 +1774,11 @@
       <c r="E64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24.4636726992</v>
       </c>
@@ -1599,8 +1794,11 @@
       <c r="E65" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24.439459803763501</v>
       </c>
@@ -1616,8 +1814,11 @@
       <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>24.439459803763501</v>
       </c>
@@ -1633,9 +1834,12 @@
       <c r="E67" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
+  <autoFilter ref="A1:F67" xr:uid="{D1420AC7-3921-4B45-A680-6D44B15747D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
